--- a/nmadb/481263.xlsx
+++ b/nmadb/481263.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22220" windowHeight="12160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +34,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Afshin:</t>
         </r>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 SD NOT SE</t>
@@ -83,12 +83,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>Health Assessment Questionnaire (HAQ) change from baseline</t>
   </si>
   <si>
@@ -162,13 +156,19 @@
   </si>
   <si>
     <t>NR</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,19 +232,20 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,14 +458,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -767,26 +768,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F25"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="4"/>
-    <col min="4" max="4" width="17.5" style="4" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="8"/>
-    <col min="7" max="7" width="9.1640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="4"/>
+    <col min="4" max="4" width="17.42578125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="8"/>
+    <col min="7" max="7" width="9.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -800,17 +801,17 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G1" s="10"/>
       <c r="I1" s="36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" s="36"/>
       <c r="K1" s="3" t="s">
@@ -819,10 +820,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -837,12 +838,12 @@
         <v>0.59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -858,12 +859,12 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="14">
         <v>2</v>
@@ -881,7 +882,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="14">
         <v>2</v>
@@ -903,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1">
@@ -911,7 +912,7 @@
         <v>2008</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="14">
         <v>3</v>
@@ -932,12 +933,12 @@
         <v>2</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="14">
         <v>3</v>
@@ -957,12 +958,12 @@
         <v>3</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="14">
         <v>3</v>
@@ -982,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.25" customHeight="1">
@@ -990,7 +991,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="14">
         <v>4</v>
@@ -1010,12 +1011,12 @@
         <v>5</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="14">
         <v>4</v>
@@ -1035,15 +1036,15 @@
         <v>6</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
       <c r="A11" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="14">
         <v>5</v>
@@ -1063,12 +1064,12 @@
         <v>7</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="14">
         <v>5</v>
@@ -1092,7 +1093,7 @@
         <v>2009</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="14">
         <v>6</v>
@@ -1113,7 +1114,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="14">
         <v>6</v>
@@ -1137,7 +1138,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="14">
         <v>7</v>
@@ -1158,7 +1159,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="14">
         <v>7</v>
@@ -1182,7 +1183,7 @@
         <v>1999</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="14">
         <v>8</v>
@@ -1203,7 +1204,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="14">
         <v>8</v>
@@ -1220,10 +1221,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="14">
         <v>9</v>
@@ -1240,7 +1241,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="B20" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="14">
         <v>9</v>
@@ -1260,7 +1261,7 @@
         <v>2009</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="14">
         <v>10</v>
@@ -1277,7 +1278,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="14">
         <v>10</v>
@@ -1294,10 +1295,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="14">
         <v>11</v>
@@ -1314,7 +1315,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="B24" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="14">
         <v>11</v>
@@ -1702,12 +1703,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1719,12 +1720,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
